--- a/AAII_Financials/Quarterly/MDEX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MDEX_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
   <si>
     <t>MDEX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,81 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -775,8 +782,14 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -816,11 +829,17 @@
       <c r="O9" s="3">
         <v>0</v>
       </c>
-      <c r="P9" s="3" t="s">
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -860,11 +879,17 @@
       <c r="O10" s="3">
         <v>0</v>
       </c>
-      <c r="P10" s="3" t="s">
+      <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +952,14 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,57 +1002,69 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>0</v>
+      <c r="D15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
@@ -1051,14 +1096,20 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3" t="s">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P15" s="3" t="s">
+      <c r="R15" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,8 +1123,10 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1116,8 +1169,14 @@
       <c r="P17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1160,8 +1219,14 @@
       <c r="P18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1243,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1222,8 +1289,14 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1260,14 +1333,20 @@
       <c r="N21" s="3">
         <v>0</v>
       </c>
-      <c r="O21" s="3" t="s">
+      <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P21" s="3" t="s">
+      <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1292,15 +1371,15 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
@@ -1310,8 +1389,14 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1354,8 +1439,14 @@
       <c r="P23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1489,14 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,8 +1539,14 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1486,8 +1589,14 @@
       <c r="P26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1530,8 +1639,14 @@
       <c r="P27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1839,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1750,8 +1889,14 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1794,8 +1939,14 @@
       <c r="P33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,8 +1989,14 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1882,57 +2039,69 @@
       <c r="P35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,8 +2138,10 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2011,8 +2184,14 @@
       <c r="P41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,8 +2234,14 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2099,8 +2284,14 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,8 +2334,14 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2169,11 +2366,11 @@
       <c r="J45" s="3">
         <v>0</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>4</v>
@@ -2181,14 +2378,20 @@
       <c r="N45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
+      <c r="O45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2231,8 +2434,14 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,8 +2484,14 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2319,19 +2534,25 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
+      <c r="E49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G49" s="3">
         <v>0</v>
@@ -2361,10 +2582,16 @@
         <v>0</v>
       </c>
       <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2684,14 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2495,8 +2734,14 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,8 +2784,14 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2578,13 +2829,19 @@
         <v>0</v>
       </c>
       <c r="O54" s="3">
+        <v>0</v>
+      </c>
+      <c r="P54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="3">
         <v>100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +2878,10 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2663,8 +2924,14 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2707,8 +2974,14 @@
       <c r="P58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>300</v>
+      </c>
+      <c r="R58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2751,8 +3024,14 @@
       <c r="P59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2781,7 +3060,7 @@
         <v>400</v>
       </c>
       <c r="L60" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M60" s="3">
         <v>400</v>
@@ -2790,13 +3069,19 @@
         <v>300</v>
       </c>
       <c r="O60" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="P60" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>300</v>
+      </c>
+      <c r="R60" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,8 +3124,14 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2883,8 +3174,14 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,8 +3324,14 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3045,7 +3360,7 @@
         <v>400</v>
       </c>
       <c r="L66" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M66" s="3">
         <v>400</v>
@@ -3054,13 +3369,19 @@
         <v>300</v>
       </c>
       <c r="O66" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="P66" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3">
+        <v>300</v>
+      </c>
+      <c r="R66" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,8 +3594,14 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3265,10 +3612,10 @@
         <v>-600</v>
       </c>
       <c r="F72" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="G72" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="H72" s="3">
         <v>-500</v>
@@ -3283,10 +3630,10 @@
         <v>-500</v>
       </c>
       <c r="L72" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="M72" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="N72" s="3">
         <v>-600</v>
@@ -3295,10 +3642,16 @@
         <v>-600</v>
       </c>
       <c r="P72" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Q72" s="3">
+        <v>-600</v>
+      </c>
+      <c r="R72" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,40 +3794,46 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="E76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="F76" s="3">
         <v>-300</v>
       </c>
       <c r="G76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I76" s="3">
         <v>-400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-300</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-300</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-400</v>
       </c>
       <c r="L76" s="3">
         <v>-300</v>
       </c>
       <c r="M76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="N76" s="3">
         <v>-300</v>
@@ -3473,8 +3844,14 @@
       <c r="P76" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R76" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,57 +3894,69 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3610,8 +3999,14 @@
       <c r="P81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,13 +4023,15 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>0</v>
+      <c r="D83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -3666,14 +4063,20 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-      <c r="O83" s="3" t="s">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P83" s="3" t="s">
+      <c r="R83" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,8 +4319,14 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3936,8 +4369,14 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4393,10 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3995,11 +4436,17 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4539,14 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4127,11 +4586,17 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-      <c r="P94" s="3" t="s">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +4809,14 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4336,14 +4827,14 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
@@ -4368,8 +4859,14 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,8 +4909,14 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4454,6 +4957,12 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MDEX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MDEX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
   <si>
     <t>MDEX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,81 +665,85 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -788,8 +792,11 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -835,11 +842,14 @@
       <c r="Q9" s="3">
         <v>0</v>
       </c>
-      <c r="R9" s="3" t="s">
+      <c r="R9" s="3">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -885,11 +895,14 @@
       <c r="Q10" s="3">
         <v>0</v>
       </c>
-      <c r="R10" s="3" t="s">
+      <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1034,17 +1054,17 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
@@ -1052,19 +1072,22 @@
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>4</v>
+      <c r="D15" s="3">
+        <v>0</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
@@ -1102,14 +1125,17 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>4</v>
+      <c r="Q15" s="3">
+        <v>0</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,8 +1151,9 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1175,8 +1202,11 @@
       <c r="R17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1225,8 +1255,11 @@
       <c r="R18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1295,8 +1329,11 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1339,14 +1376,17 @@
       <c r="P21" s="3">
         <v>0</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>4</v>
+      <c r="Q21" s="3">
+        <v>0</v>
       </c>
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1377,12 +1417,12 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
@@ -1395,8 +1435,11 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1445,8 +1488,11 @@
       <c r="R23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1495,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,8 +1594,11 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1595,8 +1647,11 @@
       <c r="R26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1645,8 +1700,11 @@
       <c r="R27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1895,8 +1965,11 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1945,8 +2018,11 @@
       <c r="R33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,8 +2071,11 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2045,63 +2124,69 @@
       <c r="R35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,8 +2226,9 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2190,8 +2277,11 @@
       <c r="R41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,8 +2330,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2290,8 +2383,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,8 +2436,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2372,8 +2471,8 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>4</v>
+      <c r="M45" s="3">
+        <v>0</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>4</v>
@@ -2384,14 +2483,17 @@
       <c r="P45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q45" s="3">
-        <v>0</v>
-      </c>
-      <c r="R45" s="3" t="s">
+      <c r="Q45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2440,8 +2542,11 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,8 +2595,11 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2540,19 +2648,22 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>4</v>
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
       </c>
       <c r="G49" s="3">
         <v>0</v>
@@ -2588,10 +2699,13 @@
         <v>0</v>
       </c>
       <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,8 +2913,11 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2835,13 +2961,16 @@
         <v>0</v>
       </c>
       <c r="Q54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R54" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,8 +3010,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2930,8 +3061,11 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2980,8 +3114,11 @@
       <c r="R58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3030,8 +3167,11 @@
       <c r="R59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3066,13 +3206,13 @@
         <v>400</v>
       </c>
       <c r="N60" s="3">
+        <v>400</v>
+      </c>
+      <c r="O60" s="3">
         <v>300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>400</v>
-      </c>
-      <c r="P60" s="3">
-        <v>300</v>
       </c>
       <c r="Q60" s="3">
         <v>300</v>
@@ -3080,8 +3220,11 @@
       <c r="R60" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3130,8 +3273,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,8 +3485,11 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3366,13 +3524,13 @@
         <v>400</v>
       </c>
       <c r="N66" s="3">
+        <v>400</v>
+      </c>
+      <c r="O66" s="3">
         <v>300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>400</v>
-      </c>
-      <c r="P66" s="3">
-        <v>300</v>
       </c>
       <c r="Q66" s="3">
         <v>300</v>
@@ -3380,8 +3538,11 @@
       <c r="R66" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,8 +3771,11 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3618,7 +3792,7 @@
         <v>-600</v>
       </c>
       <c r="H72" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="I72" s="3">
         <v>-500</v>
@@ -3636,7 +3810,7 @@
         <v>-500</v>
       </c>
       <c r="N72" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="O72" s="3">
         <v>-600</v>
@@ -3648,10 +3822,13 @@
         <v>-600</v>
       </c>
       <c r="R72" s="3">
+        <v>-600</v>
+      </c>
+      <c r="S72" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,8 +3983,11 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3812,7 +3998,7 @@
         <v>-400</v>
       </c>
       <c r="F76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="G76" s="3">
         <v>-300</v>
@@ -3821,22 +4007,22 @@
         <v>-300</v>
       </c>
       <c r="I76" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="J76" s="3">
         <v>-400</v>
       </c>
       <c r="K76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="L76" s="3">
         <v>-300</v>
       </c>
       <c r="M76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N76" s="3">
         <v>-400</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-300</v>
       </c>
       <c r="O76" s="3">
         <v>-300</v>
@@ -3850,8 +4036,11 @@
       <c r="R76" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,63 +4089,69 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4005,8 +4200,11 @@
       <c r="R81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,16 +4223,17 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
+      <c r="E83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
@@ -4069,14 +4268,17 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>4</v>
+      <c r="Q83" s="3">
+        <v>0</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,8 +4539,11 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4375,8 +4592,11 @@
       <c r="R89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4442,11 +4663,14 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-      <c r="R91" s="3" t="s">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4592,11 +4822,14 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-      <c r="R94" s="3" t="s">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,8 +5058,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4833,11 +5079,11 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
@@ -4865,8 +5111,11 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,8 +5164,11 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4963,6 +5215,9 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MDEX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MDEX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
   <si>
     <t>MDEX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,89 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -795,8 +799,11 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -845,11 +852,14 @@
       <c r="R9" s="3">
         <v>0</v>
       </c>
-      <c r="S9" s="3" t="s">
+      <c r="S9" s="3">
+        <v>0</v>
+      </c>
+      <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -898,11 +908,14 @@
       <c r="R10" s="3">
         <v>0</v>
       </c>
-      <c r="S10" s="3" t="s">
+      <c r="S10" s="3">
+        <v>0</v>
+      </c>
+      <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1057,17 +1077,17 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
@@ -1075,14 +1095,17 @@
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1128,14 +1151,17 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>4</v>
+      <c r="R15" s="3">
+        <v>0</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,13 +1178,14 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E17" s="3">
         <v>0</v>
@@ -1205,8 +1232,11 @@
       <c r="S17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1258,8 +1288,11 @@
       <c r="S18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1332,8 +1366,11 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1379,14 +1416,17 @@
       <c r="Q21" s="3">
         <v>0</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>4</v>
+      <c r="R21" s="3">
+        <v>0</v>
       </c>
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1420,12 +1460,12 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
@@ -1438,13 +1478,16 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
@@ -1491,8 +1534,11 @@
       <c r="S23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,13 +1646,16 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -1650,13 +1702,16 @@
       <c r="S26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -1703,8 +1758,11 @@
       <c r="S27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1968,13 +2038,16 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -2021,8 +2094,11 @@
       <c r="S33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,13 +2150,16 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -2127,66 +2206,72 @@
       <c r="S35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,8 +2313,9 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2280,8 +2367,11 @@
       <c r="S41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,8 +2423,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,13 +2535,16 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -2474,8 +2573,8 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>4</v>
+      <c r="N45" s="3">
+        <v>0</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>4</v>
@@ -2486,19 +2585,22 @@
       <c r="Q45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R45" s="3">
-        <v>0</v>
-      </c>
-      <c r="S45" s="3" t="s">
+      <c r="R45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E46" s="3">
         <v>0</v>
@@ -2545,8 +2647,11 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,8 +2703,11 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2651,25 +2759,28 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I49" s="3">
         <v>0</v>
@@ -2702,10 +2813,13 @@
         <v>0</v>
       </c>
       <c r="S49" s="3">
+        <v>0</v>
+      </c>
+      <c r="T49" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,13 +3039,16 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E54" s="3">
         <v>0</v>
@@ -2964,13 +3090,16 @@
         <v>0</v>
       </c>
       <c r="R54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S54" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3141,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3064,13 +3195,16 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E58" s="3">
         <v>300</v>
@@ -3117,8 +3251,11 @@
       <c r="S58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3170,13 +3307,16 @@
       <c r="S59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E60" s="3">
         <v>400</v>
@@ -3209,13 +3349,13 @@
         <v>400</v>
       </c>
       <c r="O60" s="3">
+        <v>400</v>
+      </c>
+      <c r="P60" s="3">
         <v>300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>400</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>300</v>
       </c>
       <c r="R60" s="3">
         <v>300</v>
@@ -3223,8 +3363,11 @@
       <c r="S60" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,8 +3419,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,13 +3643,16 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E66" s="3">
         <v>400</v>
@@ -3527,13 +3685,13 @@
         <v>400</v>
       </c>
       <c r="O66" s="3">
+        <v>400</v>
+      </c>
+      <c r="P66" s="3">
         <v>300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>400</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>300</v>
       </c>
       <c r="R66" s="3">
         <v>300</v>
@@ -3541,8 +3699,11 @@
       <c r="S66" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,13 +3945,16 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-600</v>
+        <v>-800</v>
       </c>
       <c r="E72" s="3">
         <v>-600</v>
@@ -3795,7 +3969,7 @@
         <v>-600</v>
       </c>
       <c r="I72" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="J72" s="3">
         <v>-500</v>
@@ -3813,7 +3987,7 @@
         <v>-500</v>
       </c>
       <c r="O72" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="P72" s="3">
         <v>-600</v>
@@ -3825,10 +3999,13 @@
         <v>-600</v>
       </c>
       <c r="S72" s="3">
+        <v>-600</v>
+      </c>
+      <c r="T72" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,13 +4169,16 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="E76" s="3">
         <v>-400</v>
@@ -4001,7 +4187,7 @@
         <v>-400</v>
       </c>
       <c r="G76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="H76" s="3">
         <v>-300</v>
@@ -4010,22 +4196,22 @@
         <v>-300</v>
       </c>
       <c r="J76" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="K76" s="3">
         <v>-400</v>
       </c>
       <c r="L76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="M76" s="3">
         <v>-300</v>
       </c>
       <c r="N76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O76" s="3">
         <v>-400</v>
-      </c>
-      <c r="O76" s="3">
-        <v>-300</v>
       </c>
       <c r="P76" s="3">
         <v>-300</v>
@@ -4039,8 +4225,11 @@
       <c r="S76" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,71 +4281,77 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
@@ -4203,8 +4398,11 @@
       <c r="S81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,16 +4422,17 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>4</v>
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
@@ -4271,14 +4470,17 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>4</v>
+      <c r="R83" s="3">
+        <v>0</v>
       </c>
       <c r="S83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,13 +4756,16 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E89" s="3">
         <v>0</v>
@@ -4595,8 +4812,11 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4666,11 +4887,14 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-      <c r="S91" s="3" t="s">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4825,11 +5055,14 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-      <c r="S94" s="3" t="s">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,13 +5304,16 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -5082,11 +5328,11 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
@@ -5114,8 +5360,11 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,8 +5416,11 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5218,6 +5470,9 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MDEX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MDEX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
   <si>
     <t>MDEX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,92 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -802,8 +805,11 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -855,11 +861,14 @@
       <c r="S9" s="3">
         <v>0</v>
       </c>
-      <c r="T9" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T9" s="3">
+        <v>0</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -911,11 +920,14 @@
       <c r="S10" s="3">
         <v>0</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T10" s="3">
+        <v>0</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,13 +948,14 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>4</v>
+      <c r="D12" s="3">
+        <v>100</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>4</v>
@@ -992,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,31 +1064,34 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1080,17 +1099,17 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
@@ -1098,14 +1117,17 @@
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1154,14 +1176,17 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>4</v>
+      <c r="S15" s="3">
+        <v>0</v>
       </c>
       <c r="T15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,17 +1204,18 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>500</v>
+      </c>
+      <c r="E17" s="3">
         <v>100</v>
       </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
       <c r="F17" s="3">
         <v>0</v>
       </c>
@@ -1235,8 +1261,11 @@
       <c r="T17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1244,7 +1273,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
@@ -1291,8 +1320,11 @@
       <c r="T18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1345,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1369,8 +1402,11 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1378,7 +1414,7 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F21" s="3">
         <v>0</v>
@@ -1419,19 +1455,22 @@
       <c r="R21" s="3">
         <v>0</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>4</v>
+      <c r="S21" s="3">
+        <v>0</v>
       </c>
       <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1463,11 +1502,11 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1481,17 +1520,20 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
       <c r="F23" s="3">
         <v>0</v>
       </c>
@@ -1537,8 +1579,11 @@
       <c r="T23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1638,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,17 +1697,20 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-200</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
       <c r="F26" s="3">
         <v>0</v>
       </c>
@@ -1705,17 +1756,20 @@
       <c r="T26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-200</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
       <c r="F27" s="3">
         <v>0</v>
       </c>
@@ -1761,8 +1815,11 @@
       <c r="T27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2051,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2041,17 +2110,20 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-200</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
       <c r="F33" s="3">
         <v>0</v>
       </c>
@@ -2097,8 +2169,11 @@
       <c r="T33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,17 +2228,20 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-200</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
       <c r="F35" s="3">
         <v>0</v>
       </c>
@@ -2209,69 +2287,75 @@
       <c r="T35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,8 +2399,9 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2370,8 +2456,11 @@
       <c r="T41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2515,11 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2482,8 +2574,11 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,8 +2633,11 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2547,7 +2645,7 @@
         <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
@@ -2576,8 +2674,8 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>4</v>
+      <c r="O45" s="3">
+        <v>0</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>4</v>
@@ -2588,14 +2686,17 @@
       <c r="R45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S45" s="3">
-        <v>0</v>
-      </c>
-      <c r="T45" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2603,7 +2704,7 @@
         <v>100</v>
       </c>
       <c r="E46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F46" s="3">
         <v>0</v>
@@ -2650,8 +2751,11 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,8 +2810,11 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2762,17 +2869,20 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>400</v>
+      </c>
+      <c r="E49" s="3">
         <v>300</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F49" s="3" t="s">
         <v>4</v>
       </c>
@@ -2782,8 +2892,8 @@
       <c r="H49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I49" s="3">
-        <v>0</v>
+      <c r="I49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J49" s="3">
         <v>0</v>
@@ -2816,10 +2926,13 @@
         <v>0</v>
       </c>
       <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3046,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2986,8 +3105,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,17 +3164,20 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>500</v>
+      </c>
+      <c r="E54" s="3">
         <v>400</v>
       </c>
-      <c r="E54" s="3">
-        <v>0</v>
-      </c>
       <c r="F54" s="3">
         <v>0</v>
       </c>
@@ -3093,13 +3218,16 @@
         <v>0</v>
       </c>
       <c r="S54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T54" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,13 +3271,14 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
         <v>0</v>
@@ -3198,16 +3328,19 @@
       <c r="T57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>500</v>
+      </c>
+      <c r="E58" s="3">
         <v>400</v>
-      </c>
-      <c r="E58" s="3">
-        <v>300</v>
       </c>
       <c r="F58" s="3">
         <v>300</v>
@@ -3254,8 +3387,11 @@
       <c r="T58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3310,16 +3446,19 @@
       <c r="T59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>600</v>
+      </c>
+      <c r="E60" s="3">
         <v>500</v>
-      </c>
-      <c r="E60" s="3">
-        <v>400</v>
       </c>
       <c r="F60" s="3">
         <v>400</v>
@@ -3352,13 +3491,13 @@
         <v>400</v>
       </c>
       <c r="P60" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q60" s="3">
         <v>300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>400</v>
-      </c>
-      <c r="R60" s="3">
-        <v>300</v>
       </c>
       <c r="S60" s="3">
         <v>300</v>
@@ -3366,13 +3505,16 @@
       <c r="T60" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -3422,8 +3564,11 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3478,8 +3623,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,16 +3800,19 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>700</v>
+      </c>
+      <c r="E66" s="3">
         <v>500</v>
-      </c>
-      <c r="E66" s="3">
-        <v>400</v>
       </c>
       <c r="F66" s="3">
         <v>400</v>
@@ -3688,13 +3845,13 @@
         <v>400</v>
       </c>
       <c r="P66" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q66" s="3">
         <v>300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>400</v>
-      </c>
-      <c r="R66" s="3">
-        <v>300</v>
       </c>
       <c r="S66" s="3">
         <v>300</v>
@@ -3702,8 +3859,11 @@
       <c r="T66" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,16 +4118,19 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-800</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-600</v>
       </c>
       <c r="F72" s="3">
         <v>-600</v>
@@ -3972,7 +4145,7 @@
         <v>-600</v>
       </c>
       <c r="J72" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="K72" s="3">
         <v>-500</v>
@@ -3990,7 +4163,7 @@
         <v>-500</v>
       </c>
       <c r="P72" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="Q72" s="3">
         <v>-600</v>
@@ -4002,10 +4175,13 @@
         <v>-600</v>
       </c>
       <c r="T72" s="3">
+        <v>-600</v>
+      </c>
+      <c r="U72" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,16 +4354,19 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E76" s="3">
         <v>-100</v>
-      </c>
-      <c r="E76" s="3">
-        <v>-400</v>
       </c>
       <c r="F76" s="3">
         <v>-400</v>
@@ -4190,7 +4375,7 @@
         <v>-400</v>
       </c>
       <c r="H76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="I76" s="3">
         <v>-300</v>
@@ -4199,22 +4384,22 @@
         <v>-300</v>
       </c>
       <c r="K76" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="L76" s="3">
         <v>-400</v>
       </c>
       <c r="M76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="N76" s="3">
         <v>-300</v>
       </c>
       <c r="O76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P76" s="3">
         <v>-400</v>
-      </c>
-      <c r="P76" s="3">
-        <v>-300</v>
       </c>
       <c r="Q76" s="3">
         <v>-300</v>
@@ -4228,8 +4413,11 @@
       <c r="T76" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,78 +4472,84 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-200</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
       <c r="F81" s="3">
         <v>0</v>
       </c>
@@ -4401,8 +4595,11 @@
       <c r="T81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,22 +4620,23 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
         <v>0</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
+      <c r="E83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H83" s="3">
         <v>0</v>
@@ -4473,14 +4671,17 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>4</v>
+      <c r="S83" s="3">
+        <v>0</v>
       </c>
       <c r="T83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,17 +4972,20 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
       <c r="F89" s="3">
         <v>0</v>
       </c>
@@ -4815,8 +5031,11 @@
       <c r="T89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5056,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4890,11 +5110,14 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,31 +5231,34 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
         <v>0</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="E94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -5058,11 +5287,14 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,17 +5549,20 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>300</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
@@ -5331,11 +5576,11 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
@@ -5363,8 +5608,11 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,8 +5667,11 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5473,6 +5724,9 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MDEX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MDEX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
   <si>
     <t>MDEX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,92 +665,96 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -808,8 +812,11 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -864,11 +871,14 @@
       <c r="T9" s="3">
         <v>0</v>
       </c>
-      <c r="U9" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U9" s="3">
+        <v>0</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -923,11 +933,14 @@
       <c r="T10" s="3">
         <v>0</v>
       </c>
-      <c r="U10" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U10" s="3">
+        <v>0</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -949,16 +962,17 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
         <v>100</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>4</v>
+      <c r="E12" s="3">
+        <v>100</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>4</v>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,17 +1084,20 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3">
         <v>200</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1093,8 +1113,8 @@
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1102,17 +1122,17 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>4</v>
@@ -1120,14 +1140,17 @@
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1179,14 +1202,17 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-      <c r="T15" s="3" t="s">
-        <v>4</v>
+      <c r="T15" s="3">
+        <v>0</v>
       </c>
       <c r="U15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,8 +1231,9 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1214,11 +1241,11 @@
         <v>500</v>
       </c>
       <c r="E17" s="3">
+        <v>500</v>
+      </c>
+      <c r="F17" s="3">
         <v>100</v>
       </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
       <c r="G17" s="3">
         <v>0</v>
       </c>
@@ -1264,8 +1291,11 @@
       <c r="U17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1273,11 +1303,11 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
       <c r="G18" s="3">
         <v>0</v>
       </c>
@@ -1323,8 +1353,11 @@
       <c r="U18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,8 +1379,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1405,8 +1439,11 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1414,11 +1451,11 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F21" s="3">
         <v>-100</v>
       </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
       <c r="G21" s="3">
         <v>0</v>
       </c>
@@ -1458,23 +1495,26 @@
       <c r="S21" s="3">
         <v>0</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>4</v>
+      <c r="T21" s="3">
+        <v>0</v>
       </c>
       <c r="U21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>400</v>
+      </c>
+      <c r="E22" s="3">
         <v>200</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
       <c r="F22" s="3">
         <v>0</v>
       </c>
@@ -1505,11 +1545,11 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
@@ -1523,20 +1563,23 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
         <v>0</v>
       </c>
@@ -1582,8 +1625,11 @@
       <c r="U23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1641,8 +1687,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,20 +1749,23 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
         <v>0</v>
       </c>
@@ -1759,20 +1811,23 @@
       <c r="U26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
         <v>0</v>
       </c>
@@ -1818,8 +1873,11 @@
       <c r="U27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,8 +2121,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2113,20 +2183,23 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
         <v>0</v>
       </c>
@@ -2172,8 +2245,11 @@
       <c r="U33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,20 +2307,23 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
         <v>0</v>
       </c>
@@ -2290,72 +2369,78 @@
       <c r="U35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,13 +2486,14 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>14400</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
@@ -2459,8 +2546,11 @@
       <c r="U41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,8 +2608,11 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2577,8 +2670,11 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2636,19 +2732,22 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
@@ -2677,8 +2776,8 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>4</v>
+      <c r="P45" s="3">
+        <v>0</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>4</v>
@@ -2689,25 +2788,28 @@
       <c r="S45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T45" s="3">
-        <v>0</v>
-      </c>
-      <c r="U45" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
+        <v>15400</v>
       </c>
       <c r="E46" s="3">
         <v>100</v>
       </c>
       <c r="F46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G46" s="3">
         <v>0</v>
@@ -2754,8 +2856,11 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2813,8 +2918,11 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2872,20 +2980,23 @@
       <c r="U48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E49" s="3">
         <v>400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>300</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>4</v>
       </c>
@@ -2895,8 +3006,8 @@
       <c r="I49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J49" s="3">
-        <v>0</v>
+      <c r="J49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -2929,10 +3040,13 @@
         <v>0</v>
       </c>
       <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,8 +3166,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3108,8 +3228,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,20 +3290,23 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>20100</v>
+      </c>
+      <c r="E54" s="3">
         <v>500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>400</v>
       </c>
-      <c r="F54" s="3">
-        <v>0</v>
-      </c>
       <c r="G54" s="3">
         <v>0</v>
       </c>
@@ -3221,13 +3347,16 @@
         <v>0</v>
       </c>
       <c r="T54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U54" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,17 +3402,18 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>400</v>
+      </c>
+      <c r="E57" s="3">
         <v>100</v>
       </c>
-      <c r="E57" s="3">
-        <v>0</v>
-      </c>
       <c r="F57" s="3">
         <v>0</v>
       </c>
@@ -3331,19 +3462,22 @@
       <c r="U57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>400</v>
-      </c>
-      <c r="F58" s="3">
-        <v>300</v>
       </c>
       <c r="G58" s="3">
         <v>300</v>
@@ -3390,13 +3524,16 @@
       <c r="U58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E59" s="3">
         <v>0</v>
@@ -3449,8 +3586,11 @@
       <c r="U59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3458,10 +3598,10 @@
         <v>600</v>
       </c>
       <c r="E60" s="3">
+        <v>600</v>
+      </c>
+      <c r="F60" s="3">
         <v>500</v>
-      </c>
-      <c r="F60" s="3">
-        <v>400</v>
       </c>
       <c r="G60" s="3">
         <v>400</v>
@@ -3494,13 +3634,13 @@
         <v>400</v>
       </c>
       <c r="Q60" s="3">
+        <v>400</v>
+      </c>
+      <c r="R60" s="3">
         <v>300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>400</v>
-      </c>
-      <c r="S60" s="3">
-        <v>300</v>
       </c>
       <c r="T60" s="3">
         <v>300</v>
@@ -3508,17 +3648,20 @@
       <c r="U60" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E61" s="3">
         <v>100</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
@@ -3567,8 +3710,11 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3626,8 +3772,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,19 +3958,22 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>15700</v>
+      </c>
+      <c r="E66" s="3">
         <v>700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>500</v>
-      </c>
-      <c r="F66" s="3">
-        <v>400</v>
       </c>
       <c r="G66" s="3">
         <v>400</v>
@@ -3848,13 +4006,13 @@
         <v>400</v>
       </c>
       <c r="Q66" s="3">
+        <v>400</v>
+      </c>
+      <c r="R66" s="3">
         <v>300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>400</v>
-      </c>
-      <c r="S66" s="3">
-        <v>300</v>
       </c>
       <c r="T66" s="3">
         <v>300</v>
@@ -3862,8 +4020,11 @@
       <c r="U66" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,19 +4292,22 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-800</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-600</v>
       </c>
       <c r="G72" s="3">
         <v>-600</v>
@@ -4148,7 +4322,7 @@
         <v>-600</v>
       </c>
       <c r="K72" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="L72" s="3">
         <v>-500</v>
@@ -4166,7 +4340,7 @@
         <v>-500</v>
       </c>
       <c r="Q72" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="R72" s="3">
         <v>-600</v>
@@ -4178,10 +4352,13 @@
         <v>-600</v>
       </c>
       <c r="U72" s="3">
+        <v>-600</v>
+      </c>
+      <c r="V72" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,19 +4540,22 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E76" s="3">
         <v>-200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-100</v>
-      </c>
-      <c r="F76" s="3">
-        <v>-400</v>
       </c>
       <c r="G76" s="3">
         <v>-400</v>
@@ -4378,7 +4564,7 @@
         <v>-400</v>
       </c>
       <c r="I76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="J76" s="3">
         <v>-300</v>
@@ -4387,22 +4573,22 @@
         <v>-300</v>
       </c>
       <c r="L76" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="M76" s="3">
         <v>-400</v>
       </c>
       <c r="N76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="O76" s="3">
         <v>-300</v>
       </c>
       <c r="P76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q76" s="3">
         <v>-400</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>-300</v>
       </c>
       <c r="R76" s="3">
         <v>-300</v>
@@ -4416,8 +4602,11 @@
       <c r="U76" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,84 +4664,90 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
         <v>0</v>
       </c>
@@ -4598,8 +4793,11 @@
       <c r="U81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,16 +4819,17 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
         <v>0</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>4</v>
+      <c r="E83" s="3">
+        <v>0</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>4</v>
@@ -4638,8 +4837,8 @@
       <c r="G83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H83" s="3">
-        <v>0</v>
+      <c r="H83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I83" s="3">
         <v>0</v>
@@ -4674,14 +4873,17 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>4</v>
+      <c r="T83" s="3">
+        <v>0</v>
       </c>
       <c r="U83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,20 +5189,23 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
         <v>0</v>
       </c>
@@ -5034,8 +5251,11 @@
       <c r="U89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,8 +5277,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5113,11 +5334,14 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,16 +5461,19 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
+      <c r="D94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>4</v>
@@ -5260,8 +5490,8 @@
       <c r="J94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
@@ -5290,11 +5520,14 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,20 +5795,23 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>15500</v>
+      </c>
+      <c r="E100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
@@ -5579,11 +5825,11 @@
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
@@ -5611,8 +5857,11 @@
       <c r="U100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5670,13 +5919,16 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>14400</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
@@ -5727,6 +5979,9 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MDEX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MDEX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="92">
   <si>
     <t>MDEX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,101 +665,105 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
+      <c r="D8" s="3">
+        <v>300</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
@@ -815,8 +819,11 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -874,16 +881,19 @@
       <c r="U9" s="3">
         <v>0</v>
       </c>
-      <c r="V9" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V9" s="3">
+        <v>0</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>4</v>
+      <c r="D10" s="3">
+        <v>300</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
@@ -936,11 +946,14 @@
       <c r="U10" s="3">
         <v>0</v>
       </c>
-      <c r="V10" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V10" s="3">
+        <v>0</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -974,8 +988,8 @@
       <c r="E12" s="3">
         <v>100</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>4</v>
+      <c r="F12" s="3">
+        <v>100</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>4</v>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,20 +1104,23 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
         <v>200</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1116,8 +1136,8 @@
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1125,17 +1145,17 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>4</v>
@@ -1143,19 +1163,22 @@
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
@@ -1205,14 +1228,17 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-      <c r="U15" s="3" t="s">
-        <v>4</v>
+      <c r="U15" s="3">
+        <v>0</v>
       </c>
       <c r="V15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,23 +1258,24 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>500</v>
+        <v>1400</v>
       </c>
       <c r="E17" s="3">
         <v>500</v>
       </c>
       <c r="F17" s="3">
+        <v>500</v>
+      </c>
+      <c r="G17" s="3">
         <v>100</v>
       </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
       <c r="H17" s="3">
         <v>0</v>
       </c>
@@ -1294,23 +1321,26 @@
       <c r="V17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
+      <c r="D18" s="3">
+        <v>-1100</v>
       </c>
       <c r="E18" s="3">
         <v>-500</v>
       </c>
       <c r="F18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
       <c r="H18" s="3">
         <v>0</v>
       </c>
@@ -1356,8 +1386,11 @@
       <c r="V18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,13 +1413,14 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1442,23 +1476,26 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
+      <c r="D21" s="3">
+        <v>-900</v>
       </c>
       <c r="E21" s="3">
         <v>-500</v>
       </c>
       <c r="F21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G21" s="3">
         <v>-100</v>
       </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
       <c r="H21" s="3">
         <v>0</v>
       </c>
@@ -1498,26 +1535,29 @@
       <c r="T21" s="3">
         <v>0</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>4</v>
+      <c r="U21" s="3">
+        <v>0</v>
       </c>
       <c r="V21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>600</v>
+      </c>
+      <c r="E22" s="3">
         <v>400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>200</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
       <c r="G22" s="3">
         <v>0</v>
       </c>
@@ -1548,11 +1588,11 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1566,23 +1606,26 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
         <v>0</v>
       </c>
@@ -1628,8 +1671,11 @@
       <c r="V23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,23 +1801,26 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
         <v>0</v>
       </c>
@@ -1814,23 +1866,26 @@
       <c r="V26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
         <v>0</v>
       </c>
@@ -1876,8 +1931,11 @@
       <c r="V27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,13 +2191,16 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2186,23 +2256,26 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
         <v>0</v>
       </c>
@@ -2248,8 +2321,11 @@
       <c r="V33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,23 +2386,26 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
         <v>0</v>
       </c>
@@ -2372,75 +2451,81 @@
       <c r="V35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,17 +2573,18 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E41" s="3">
         <v>14400</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
       <c r="F41" s="3">
         <v>0</v>
       </c>
@@ -2549,8 +2636,11 @@
       <c r="V41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,31 +2701,34 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -2673,31 +2766,34 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
@@ -2735,22 +2831,25 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
         <v>1000</v>
-      </c>
-      <c r="E45" s="3">
-        <v>100</v>
       </c>
       <c r="F45" s="3">
         <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
@@ -2779,8 +2878,8 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>4</v>
+      <c r="Q45" s="3">
+        <v>0</v>
       </c>
       <c r="R45" s="3" t="s">
         <v>4</v>
@@ -2791,28 +2890,31 @@
       <c r="T45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U45" s="3">
-        <v>0</v>
-      </c>
-      <c r="V45" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+      <c r="W45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E46" s="3">
         <v>15400</v>
-      </c>
-      <c r="E46" s="3">
-        <v>100</v>
       </c>
       <c r="F46" s="3">
         <v>100</v>
       </c>
       <c r="G46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H46" s="3">
         <v>0</v>
@@ -2859,31 +2961,34 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>400</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -2921,31 +3026,34 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
-      </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+        <v>1400</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
@@ -2983,23 +3091,26 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E49" s="3">
         <v>4600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>300</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>4</v>
       </c>
@@ -3009,8 +3120,8 @@
       <c r="J49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
@@ -3043,10 +3154,13 @@
         <v>0</v>
       </c>
       <c r="V49" s="3">
+        <v>0</v>
+      </c>
+      <c r="W49" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,23 +3416,26 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>23300</v>
+      </c>
+      <c r="E54" s="3">
         <v>20100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>400</v>
       </c>
-      <c r="G54" s="3">
-        <v>0</v>
-      </c>
       <c r="H54" s="3">
         <v>0</v>
       </c>
@@ -3350,13 +3476,16 @@
         <v>0</v>
       </c>
       <c r="U54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V54" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,20 +3533,21 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>0</v>
+      </c>
+      <c r="E57" s="3">
         <v>400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>100</v>
       </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
       <c r="G57" s="3">
         <v>0</v>
       </c>
@@ -3465,8 +3596,11 @@
       <c r="V57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3474,13 +3608,13 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>400</v>
-      </c>
-      <c r="G58" s="3">
-        <v>300</v>
       </c>
       <c r="H58" s="3">
         <v>300</v>
@@ -3527,17 +3661,20 @@
       <c r="V58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E59" s="3">
         <v>300</v>
       </c>
-      <c r="E59" s="3">
-        <v>0</v>
-      </c>
       <c r="F59" s="3">
         <v>0</v>
       </c>
@@ -3589,22 +3726,25 @@
       <c r="V59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="E60" s="3">
         <v>600</v>
       </c>
       <c r="F60" s="3">
+        <v>600</v>
+      </c>
+      <c r="G60" s="3">
         <v>500</v>
-      </c>
-      <c r="G60" s="3">
-        <v>400</v>
       </c>
       <c r="H60" s="3">
         <v>400</v>
@@ -3637,13 +3777,13 @@
         <v>400</v>
       </c>
       <c r="R60" s="3">
+        <v>400</v>
+      </c>
+      <c r="S60" s="3">
         <v>300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>400</v>
-      </c>
-      <c r="T60" s="3">
-        <v>300</v>
       </c>
       <c r="U60" s="3">
         <v>300</v>
@@ -3651,20 +3791,23 @@
       <c r="V60" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E61" s="3">
         <v>15000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>100</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -3713,31 +3856,34 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+        <v>600</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,22 +4116,25 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E66" s="3">
         <v>15700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>500</v>
-      </c>
-      <c r="G66" s="3">
-        <v>400</v>
       </c>
       <c r="H66" s="3">
         <v>400</v>
@@ -4009,13 +4167,13 @@
         <v>400</v>
       </c>
       <c r="R66" s="3">
+        <v>400</v>
+      </c>
+      <c r="S66" s="3">
         <v>300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>400</v>
-      </c>
-      <c r="T66" s="3">
-        <v>300</v>
       </c>
       <c r="U66" s="3">
         <v>300</v>
@@ -4023,8 +4181,11 @@
       <c r="V66" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,22 +4466,25 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-800</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-600</v>
       </c>
       <c r="H72" s="3">
         <v>-600</v>
@@ -4325,7 +4499,7 @@
         <v>-600</v>
       </c>
       <c r="L72" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="M72" s="3">
         <v>-500</v>
@@ -4343,7 +4517,7 @@
         <v>-500</v>
       </c>
       <c r="R72" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="S72" s="3">
         <v>-600</v>
@@ -4355,10 +4529,13 @@
         <v>-600</v>
       </c>
       <c r="V72" s="3">
+        <v>-600</v>
+      </c>
+      <c r="W72" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,22 +4726,25 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E76" s="3">
         <v>4400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-100</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-400</v>
       </c>
       <c r="H76" s="3">
         <v>-400</v>
@@ -4567,7 +4753,7 @@
         <v>-400</v>
       </c>
       <c r="J76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="K76" s="3">
         <v>-300</v>
@@ -4576,22 +4762,22 @@
         <v>-300</v>
       </c>
       <c r="M76" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="N76" s="3">
         <v>-400</v>
       </c>
       <c r="O76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="P76" s="3">
         <v>-300</v>
       </c>
       <c r="Q76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R76" s="3">
         <v>-400</v>
-      </c>
-      <c r="R76" s="3">
-        <v>-300</v>
       </c>
       <c r="S76" s="3">
         <v>-300</v>
@@ -4605,8 +4791,11 @@
       <c r="V76" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,90 +4856,96 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
         <v>0</v>
       </c>
@@ -4796,8 +4991,11 @@
       <c r="V81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,19 +5018,20 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>4</v>
+      <c r="F83" s="3">
+        <v>0</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>4</v>
@@ -4840,8 +5039,8 @@
       <c r="H83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I83" s="3">
-        <v>0</v>
+      <c r="I83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J83" s="3">
         <v>0</v>
@@ -4876,14 +5075,17 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>4</v>
+      <c r="U83" s="3">
+        <v>0</v>
       </c>
       <c r="V83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,23 +5406,26 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
         <v>0</v>
       </c>
@@ -5254,8 +5471,11 @@
       <c r="V89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5337,11 +5558,14 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,19 +5691,22 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
+      <c r="E94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>4</v>
@@ -5493,8 +5723,8 @@
       <c r="K94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="L94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -5523,11 +5753,14 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,23 +6041,26 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E100" s="3">
         <v>15500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
@@ -5828,11 +6074,11 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
@@ -5860,8 +6106,11 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,17 +6171,20 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="E102" s="3">
         <v>14400</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
         <v>0</v>
       </c>
@@ -5982,6 +6234,9 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MDEX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MDEX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="92">
   <si>
     <t>MDEX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,109 +665,113 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>500</v>
+      </c>
+      <c r="E8" s="3">
         <v>300</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
       <c r="F8" s="3">
         <v>0</v>
       </c>
@@ -822,8 +826,11 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -884,20 +891,23 @@
       <c r="V9" s="3">
         <v>0</v>
       </c>
-      <c r="W9" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W9" s="3">
+        <v>0</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>500</v>
+      </c>
+      <c r="E10" s="3">
         <v>300</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
       <c r="F10" s="3">
         <v>0</v>
       </c>
@@ -949,11 +959,14 @@
       <c r="V10" s="3">
         <v>0</v>
       </c>
-      <c r="W10" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W10" s="3">
+        <v>0</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,13 +990,14 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E12" s="3">
         <v>100</v>
@@ -991,8 +1005,8 @@
       <c r="F12" s="3">
         <v>100</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>4</v>
+      <c r="G12" s="3">
+        <v>100</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>4</v>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1118,12 +1138,12 @@
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
         <v>200</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1139,8 +1159,8 @@
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1148,17 +1168,17 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>4</v>
@@ -1166,23 +1186,26 @@
       <c r="U14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="3">
         <v>200</v>
       </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
       <c r="F15" s="3">
         <v>0</v>
       </c>
@@ -1231,14 +1254,17 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-      <c r="V15" s="3" t="s">
-        <v>4</v>
+      <c r="V15" s="3">
+        <v>0</v>
       </c>
       <c r="W15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,26 +1285,27 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E17" s="3">
         <v>1400</v>
-      </c>
-      <c r="E17" s="3">
-        <v>500</v>
       </c>
       <c r="F17" s="3">
         <v>500</v>
       </c>
       <c r="G17" s="3">
+        <v>500</v>
+      </c>
+      <c r="H17" s="3">
         <v>100</v>
       </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
       <c r="I17" s="3">
         <v>0</v>
       </c>
@@ -1324,26 +1351,29 @@
       <c r="W17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1100</v>
-      </c>
-      <c r="E18" s="3">
-        <v>-500</v>
       </c>
       <c r="F18" s="3">
         <v>-500</v>
       </c>
       <c r="G18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="I18" s="3">
         <v>0</v>
       </c>
@@ -1389,8 +1419,11 @@
       <c r="W18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,13 +1447,14 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1479,26 +1513,29 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-900</v>
-      </c>
-      <c r="E21" s="3">
-        <v>-500</v>
       </c>
       <c r="F21" s="3">
         <v>-500</v>
       </c>
       <c r="G21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H21" s="3">
         <v>-100</v>
       </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
       <c r="I21" s="3">
         <v>0</v>
       </c>
@@ -1538,14 +1575,17 @@
       <c r="U21" s="3">
         <v>0</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>4</v>
+      <c r="V21" s="3">
+        <v>0</v>
       </c>
       <c r="W21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1553,14 +1593,14 @@
         <v>600</v>
       </c>
       <c r="E22" s="3">
+        <v>600</v>
+      </c>
+      <c r="F22" s="3">
         <v>400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>200</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
       <c r="H22" s="3">
         <v>0</v>
       </c>
@@ -1591,11 +1631,11 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S22" s="3">
-        <v>0</v>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
@@ -1609,26 +1649,29 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-200</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
         <v>0</v>
       </c>
@@ -1674,8 +1717,11 @@
       <c r="W23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,26 +1853,29 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-200</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
         <v>0</v>
       </c>
@@ -1869,26 +1921,29 @@
       <c r="W26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-200</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
         <v>0</v>
       </c>
@@ -1934,8 +1989,11 @@
       <c r="W27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,13 +2261,16 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2259,26 +2329,29 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-200</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
         <v>0</v>
       </c>
@@ -2324,8 +2397,11 @@
       <c r="W33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,26 +2465,29 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-200</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
         <v>0</v>
       </c>
@@ -2454,78 +2533,84 @@
       <c r="W35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,20 +2660,21 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E41" s="3">
         <v>5600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>14400</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
         <v>0</v>
       </c>
@@ -2639,8 +2726,11 @@
       <c r="W41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,17 +2794,20 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>600</v>
+      </c>
+      <c r="E43" s="3">
         <v>200</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2730,8 +2823,8 @@
       <c r="J43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -2769,16 +2862,19 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
         <v>100</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>4</v>
+      <c r="E44" s="3">
+        <v>100</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>4</v>
@@ -2795,8 +2891,8 @@
       <c r="J44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
@@ -2834,25 +2930,28 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
         <v>1000</v>
-      </c>
-      <c r="F45" s="3">
-        <v>100</v>
       </c>
       <c r="G45" s="3">
         <v>100</v>
       </c>
       <c r="H45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
@@ -2881,8 +2980,8 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>4</v>
+      <c r="R45" s="3">
+        <v>0</v>
       </c>
       <c r="S45" s="3" t="s">
         <v>4</v>
@@ -2893,31 +2992,34 @@
       <c r="U45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V45" s="3">
-        <v>0</v>
-      </c>
-      <c r="W45" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+      <c r="X45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E46" s="3">
         <v>6000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>15400</v>
-      </c>
-      <c r="F46" s="3">
-        <v>100</v>
       </c>
       <c r="G46" s="3">
         <v>100</v>
       </c>
       <c r="H46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I46" s="3">
         <v>0</v>
@@ -2964,17 +3066,20 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E47" s="3">
         <v>400</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2990,8 +3095,8 @@
       <c r="J47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -3029,17 +3134,20 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E48" s="3">
         <v>1400</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F48" s="3" t="s">
         <v>4</v>
       </c>
@@ -3055,8 +3163,8 @@
       <c r="J48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
@@ -3094,26 +3202,29 @@
       <c r="W48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E49" s="3">
         <v>15600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>300</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>4</v>
       </c>
@@ -3123,8 +3234,8 @@
       <c r="K49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
+      <c r="L49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
@@ -3157,10 +3268,13 @@
         <v>0</v>
       </c>
       <c r="W49" s="3">
+        <v>0</v>
+      </c>
+      <c r="X49" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,26 +3542,29 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>22800</v>
+      </c>
+      <c r="E54" s="3">
         <v>23300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>20100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>400</v>
       </c>
-      <c r="H54" s="3">
-        <v>0</v>
-      </c>
       <c r="I54" s="3">
         <v>0</v>
       </c>
@@ -3479,13 +3605,16 @@
         <v>0</v>
       </c>
       <c r="V54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W54" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,23 +3664,24 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
-        <v>0</v>
+      <c r="D57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E57" s="3">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3">
         <v>400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>100</v>
       </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
       <c r="H57" s="3">
         <v>0</v>
       </c>
@@ -3599,8 +3730,11 @@
       <c r="W57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3611,13 +3745,13 @@
         <v>0</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>400</v>
-      </c>
-      <c r="H58" s="3">
-        <v>300</v>
       </c>
       <c r="I58" s="3">
         <v>300</v>
@@ -3664,20 +3798,23 @@
       <c r="W58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E59" s="3">
         <v>1200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>300</v>
       </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
       <c r="G59" s="3">
         <v>0</v>
       </c>
@@ -3729,25 +3866,28 @@
       <c r="W59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E60" s="3">
         <v>1200</v>
-      </c>
-      <c r="E60" s="3">
-        <v>600</v>
       </c>
       <c r="F60" s="3">
         <v>600</v>
       </c>
       <c r="G60" s="3">
+        <v>600</v>
+      </c>
+      <c r="H60" s="3">
         <v>500</v>
-      </c>
-      <c r="H60" s="3">
-        <v>400</v>
       </c>
       <c r="I60" s="3">
         <v>400</v>
@@ -3780,13 +3920,13 @@
         <v>400</v>
       </c>
       <c r="S60" s="3">
+        <v>400</v>
+      </c>
+      <c r="T60" s="3">
         <v>300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>400</v>
-      </c>
-      <c r="U60" s="3">
-        <v>300</v>
       </c>
       <c r="V60" s="3">
         <v>300</v>
@@ -3794,23 +3934,26 @@
       <c r="W60" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E61" s="3">
         <v>15200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>15000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>100</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -3859,17 +4002,20 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E62" s="3">
         <v>600</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F62" s="3" t="s">
         <v>4</v>
       </c>
@@ -3885,8 +4031,8 @@
       <c r="J62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,25 +4274,28 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>17600</v>
+      </c>
+      <c r="E66" s="3">
         <v>17000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>15700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>500</v>
-      </c>
-      <c r="H66" s="3">
-        <v>400</v>
       </c>
       <c r="I66" s="3">
         <v>400</v>
@@ -4170,13 +4328,13 @@
         <v>400</v>
       </c>
       <c r="S66" s="3">
+        <v>400</v>
+      </c>
+      <c r="T66" s="3">
         <v>300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>400</v>
-      </c>
-      <c r="U66" s="3">
-        <v>300</v>
       </c>
       <c r="V66" s="3">
         <v>300</v>
@@ -4184,8 +4342,11 @@
       <c r="W66" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,25 +4640,28 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-4000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-2300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-800</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-600</v>
       </c>
       <c r="I72" s="3">
         <v>-600</v>
@@ -4502,7 +4676,7 @@
         <v>-600</v>
       </c>
       <c r="M72" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="N72" s="3">
         <v>-500</v>
@@ -4520,7 +4694,7 @@
         <v>-500</v>
       </c>
       <c r="S72" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="T72" s="3">
         <v>-600</v>
@@ -4532,10 +4706,13 @@
         <v>-600</v>
       </c>
       <c r="W72" s="3">
+        <v>-600</v>
+      </c>
+      <c r="X72" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,25 +4912,28 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E76" s="3">
         <v>6400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-100</v>
-      </c>
-      <c r="H76" s="3">
-        <v>-400</v>
       </c>
       <c r="I76" s="3">
         <v>-400</v>
@@ -4756,7 +4942,7 @@
         <v>-400</v>
       </c>
       <c r="K76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="L76" s="3">
         <v>-300</v>
@@ -4765,22 +4951,22 @@
         <v>-300</v>
       </c>
       <c r="N76" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="O76" s="3">
         <v>-400</v>
       </c>
       <c r="P76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="Q76" s="3">
         <v>-300</v>
       </c>
       <c r="R76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S76" s="3">
         <v>-400</v>
-      </c>
-      <c r="S76" s="3">
-        <v>-300</v>
       </c>
       <c r="T76" s="3">
         <v>-300</v>
@@ -4794,8 +4980,11 @@
       <c r="W76" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,96 +5048,102 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-200</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
         <v>0</v>
       </c>
@@ -4994,8 +5189,11 @@
       <c r="W81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,22 +5217,23 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E83" s="3">
         <v>200</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
       <c r="F83" s="3">
         <v>0</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>4</v>
+      <c r="G83" s="3">
+        <v>0</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>4</v>
@@ -5042,8 +5241,8 @@
       <c r="I83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J83" s="3">
-        <v>0</v>
+      <c r="J83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -5078,14 +5277,17 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>4</v>
+      <c r="V83" s="3">
+        <v>0</v>
       </c>
       <c r="W83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,26 +5623,29 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
         <v>0</v>
       </c>
@@ -5474,8 +5691,11 @@
       <c r="W89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5561,11 +5782,14 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,22 +5921,25 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>4</v>
+      <c r="D94" s="3">
+        <v>-2100</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>4</v>
@@ -5726,8 +5956,8 @@
       <c r="L94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
@@ -5756,11 +5986,14 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,26 +6287,29 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E100" s="3">
         <v>3700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>15500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
@@ -6077,11 +6323,11 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
@@ -6109,8 +6355,11 @@
       <c r="W100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,20 +6423,23 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-8800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>14400</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
@@ -6237,6 +6489,9 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MDEX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MDEX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="92">
   <si>
     <t>MDEX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,115 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -770,17 +781,17 @@
         <v>500</v>
       </c>
       <c r="E8" s="3">
+        <v>500</v>
+      </c>
+      <c r="F8" s="3">
+        <v>500</v>
+      </c>
+      <c r="G8" s="3">
+        <v>500</v>
+      </c>
+      <c r="H8" s="3">
         <v>300</v>
       </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
       <c r="I8" s="3">
         <v>0</v>
       </c>
@@ -829,19 +840,28 @@
       <c r="X8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0</v>
+      <c r="D9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
@@ -894,29 +914,38 @@
       <c r="W9" s="3">
         <v>0</v>
       </c>
-      <c r="X9" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="3">
         <v>500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="H10" s="3">
         <v>300</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
       <c r="I10" s="3">
         <v>0</v>
       </c>
@@ -962,11 +991,20 @@
       <c r="W10" s="3">
         <v>0</v>
       </c>
-      <c r="X10" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,32 +1029,35 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3">
-        <v>0</v>
-      </c>
-      <c r="E12" s="3">
+      <c r="D12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
         <v>100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="I12" s="3">
         <v>100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="J12" s="3">
         <v>100</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
@@ -1059,8 +1100,17 @@
       <c r="X12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1177,17 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1138,21 +1197,21 @@
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="F14" s="3">
+        <v>4200</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3">
         <v>200</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1162,20 +1221,20 @@
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1186,35 +1245,44 @@
       <c r="U14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W14" s="3">
-        <v>0</v>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>4</v>
+      <c r="D15" s="3">
+        <v>100</v>
       </c>
       <c r="E15" s="3">
+        <v>100</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="3">
         <v>200</v>
       </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
       <c r="I15" s="3">
         <v>0</v>
       </c>
@@ -1257,14 +1325,23 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-      <c r="W15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X15" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,35 +1363,38 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F17" s="3">
+        <v>4400</v>
+      </c>
+      <c r="G17" s="3">
         <v>2200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="H17" s="3">
         <v>1400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="I17" s="3">
         <v>500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="J17" s="3">
         <v>500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="K17" s="3">
         <v>100</v>
       </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
       <c r="L17" s="3">
         <v>0</v>
       </c>
@@ -1354,35 +1434,44 @@
       <c r="X17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="G18" s="3">
         <v>-1700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="H18" s="3">
         <v>-1100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="I18" s="3">
         <v>-500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="J18" s="3">
         <v>-500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
         <v>0</v>
       </c>
@@ -1422,8 +1511,17 @@
       <c r="X18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,28 +1546,31 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
@@ -1516,35 +1617,44 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="G21" s="3">
         <v>-1900</v>
       </c>
-      <c r="E21" s="3">
-        <v>-900</v>
-      </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J21" s="3">
         <v>-500</v>
       </c>
-      <c r="G21" s="3">
-        <v>-500</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="K21" s="3">
         <v>-100</v>
       </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
       <c r="L21" s="3">
         <v>0</v>
       </c>
@@ -1578,38 +1688,47 @@
       <c r="V21" s="3">
         <v>0</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="W21" s="3">
+        <v>0</v>
+      </c>
+      <c r="X21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F22" s="3">
+        <v>4400</v>
+      </c>
+      <c r="G22" s="3">
         <v>600</v>
       </c>
-      <c r="E22" s="3">
-        <v>600</v>
-      </c>
-      <c r="F22" s="3">
-        <v>400</v>
-      </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
+        <v>700</v>
+      </c>
+      <c r="I22" s="3">
+        <v>500</v>
+      </c>
+      <c r="J22" s="3">
         <v>200</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
@@ -1634,8 +1753,8 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>4</v>
+      <c r="S22" s="3">
+        <v>0</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
@@ -1643,8 +1762,8 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-      <c r="V22" s="3">
-        <v>0</v>
+      <c r="V22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W22" s="3">
         <v>0</v>
@@ -1652,35 +1771,44 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="G23" s="3">
         <v>-2400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="H23" s="3">
         <v>-1700</v>
       </c>
-      <c r="F23" s="3">
-        <v>-900</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="J23" s="3">
         <v>-700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="K23" s="3">
         <v>-200</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
         <v>0</v>
       </c>
@@ -1720,8 +1848,17 @@
       <c r="X23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,8 +1925,17 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,35 +2002,44 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="G26" s="3">
         <v>-2400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="H26" s="3">
         <v>-1700</v>
       </c>
-      <c r="F26" s="3">
-        <v>-900</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="J26" s="3">
         <v>-700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="K26" s="3">
         <v>-200</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
         <v>0</v>
       </c>
@@ -1924,35 +2079,44 @@
       <c r="X26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="G27" s="3">
         <v>-2400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="H27" s="3">
         <v>-1700</v>
       </c>
-      <c r="F27" s="3">
-        <v>-900</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="J27" s="3">
         <v>-700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="K27" s="3">
         <v>-200</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
         <v>0</v>
       </c>
@@ -1992,8 +2156,17 @@
       <c r="X27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2233,17 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2072,10 +2254,10 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
+        <v>-500</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
@@ -2083,8 +2265,8 @@
       <c r="I29" s="3">
         <v>0</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
+      <c r="J29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -2128,8 +2310,17 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2387,17 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,28 +2464,37 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>600</v>
+      </c>
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
@@ -2332,35 +2541,44 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="G33" s="3">
         <v>-2400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="H33" s="3">
         <v>-1700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="I33" s="3">
         <v>-900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="J33" s="3">
         <v>-700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="K33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
         <v>0</v>
       </c>
@@ -2400,8 +2618,17 @@
       <c r="X33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,35 +2695,44 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="G35" s="3">
         <v>-2400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="H35" s="3">
         <v>-1700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="I35" s="3">
         <v>-900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="J35" s="3">
         <v>-700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="K35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
         <v>0</v>
       </c>
@@ -2536,81 +2772,99 @@
       <c r="X35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2889,11 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,29 +2918,32 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
+        <v>200</v>
+      </c>
+      <c r="F41" s="3">
+        <v>100</v>
+      </c>
+      <c r="G41" s="3">
         <v>2200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="H41" s="3">
         <v>5600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="I41" s="3">
         <v>14400</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
@@ -2729,8 +2989,17 @@
       <c r="X41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,26 +3066,35 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>900</v>
+      </c>
+      <c r="E43" s="3">
+        <v>900</v>
+      </c>
+      <c r="F43" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G43" s="3">
         <v>600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="H43" s="3">
         <v>200</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2826,14 +3104,14 @@
       <c r="K43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
-      <c r="N43" s="3">
-        <v>0</v>
+      <c r="L43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
@@ -2865,26 +3143,35 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44" s="3">
         <v>100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="H44" s="3">
         <v>100</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2894,14 +3181,14 @@
       <c r="K44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L44" s="3">
-        <v>0</v>
-      </c>
-      <c r="M44" s="3">
-        <v>0</v>
-      </c>
-      <c r="N44" s="3">
-        <v>0</v>
+      <c r="L44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O44" s="3">
         <v>0</v>
@@ -2933,34 +3220,43 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
       </c>
       <c r="F45" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
         <v>100</v>
       </c>
       <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
       <c r="K45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -2983,53 +3279,62 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U45" s="3" t="s">
-        <v>4</v>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3">
+        <v>0</v>
       </c>
       <c r="V45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W45" s="3">
-        <v>0</v>
+      <c r="W45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F46" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G46" s="3">
         <v>3000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="H46" s="3">
         <v>6000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="I46" s="3">
         <v>15400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="J46" s="3">
         <v>100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="K46" s="3">
         <v>100</v>
       </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
       <c r="L46" s="3">
         <v>0</v>
       </c>
@@ -3069,26 +3374,35 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
         <v>2300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="H47" s="3">
         <v>400</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>4</v>
       </c>
@@ -3098,14 +3412,14 @@
       <c r="K47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
-      </c>
-      <c r="M47" s="3">
-        <v>0</v>
-      </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -3137,26 +3451,35 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F48" s="3">
+        <v>2900</v>
+      </c>
+      <c r="G48" s="3">
         <v>2300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="H48" s="3">
         <v>1400</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>4</v>
       </c>
@@ -3166,14 +3489,14 @@
       <c r="K48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L48" s="3">
-        <v>0</v>
-      </c>
-      <c r="M48" s="3">
-        <v>0</v>
-      </c>
-      <c r="N48" s="3">
-        <v>0</v>
+      <c r="L48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
@@ -3205,46 +3528,55 @@
       <c r="X48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E49" s="3">
+        <v>12200</v>
+      </c>
+      <c r="F49" s="3">
+        <v>12200</v>
+      </c>
+      <c r="G49" s="3">
         <v>15200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="H49" s="3">
         <v>15600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="I49" s="3">
         <v>4600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="J49" s="3">
         <v>400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="K49" s="3">
         <v>300</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
-      </c>
-      <c r="N49" s="3">
-        <v>0</v>
-      </c>
-      <c r="O49" s="3">
-        <v>0</v>
+      <c r="M49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P49" s="3">
         <v>0</v>
@@ -3271,10 +3603,19 @@
         <v>0</v>
       </c>
       <c r="X49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3682,17 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3759,17 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3477,8 +3836,17 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,35 +3913,44 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>16200</v>
+      </c>
+      <c r="F54" s="3">
+        <v>16800</v>
+      </c>
+      <c r="G54" s="3">
         <v>22800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="H54" s="3">
         <v>23300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="I54" s="3">
         <v>20100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="J54" s="3">
         <v>500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="K54" s="3">
         <v>400</v>
       </c>
-      <c r="I54" s="3">
-        <v>0</v>
-      </c>
-      <c r="J54" s="3">
-        <v>0</v>
-      </c>
-      <c r="K54" s="3">
-        <v>0</v>
-      </c>
       <c r="L54" s="3">
         <v>0</v>
       </c>
@@ -3608,13 +3985,22 @@
         <v>0</v>
       </c>
       <c r="W54" s="3">
+        <v>0</v>
+      </c>
+      <c r="X54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="3">
         <v>100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="AA54" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +4025,11 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,32 +4054,35 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>4</v>
+      <c r="D57" s="3">
+        <v>900</v>
       </c>
       <c r="E57" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="F57" s="3">
+        <v>800</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
         <v>400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="J57" s="3">
         <v>100</v>
       </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
-      <c r="J57" s="3">
-        <v>0</v>
-      </c>
       <c r="K57" s="3">
         <v>0</v>
       </c>
@@ -3733,34 +4125,43 @@
       <c r="X57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>2200</v>
       </c>
       <c r="F58" s="3">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="K58" s="3">
         <v>400</v>
-      </c>
-      <c r="I58" s="3">
-        <v>300</v>
-      </c>
-      <c r="J58" s="3">
-        <v>300</v>
-      </c>
-      <c r="K58" s="3">
-        <v>300</v>
       </c>
       <c r="L58" s="3">
         <v>300</v>
@@ -3801,29 +4202,38 @@
       <c r="X58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z58" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F59" s="3">
+        <v>3900</v>
+      </c>
+      <c r="G59" s="3">
         <v>1100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="H59" s="3">
         <v>1200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="I59" s="3">
         <v>300</v>
       </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
       <c r="J59" s="3">
         <v>0</v>
       </c>
@@ -3869,34 +4279,43 @@
       <c r="X59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>7600</v>
+      </c>
+      <c r="F60" s="3">
+        <v>6100</v>
+      </c>
+      <c r="G60" s="3">
         <v>1100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="H60" s="3">
         <v>1200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="I60" s="3">
         <v>600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="J60" s="3">
         <v>600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="K60" s="3">
         <v>500</v>
-      </c>
-      <c r="I60" s="3">
-        <v>400</v>
-      </c>
-      <c r="J60" s="3">
-        <v>400</v>
-      </c>
-      <c r="K60" s="3">
-        <v>400</v>
       </c>
       <c r="L60" s="3">
         <v>400</v>
@@ -3923,46 +4342,55 @@
         <v>400</v>
       </c>
       <c r="T60" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="U60" s="3">
         <v>400</v>
       </c>
       <c r="V60" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="W60" s="3">
         <v>300</v>
       </c>
       <c r="X60" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y60" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA60" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E61" s="3">
+        <v>13300</v>
+      </c>
+      <c r="F61" s="3">
+        <v>12900</v>
+      </c>
+      <c r="G61" s="3">
         <v>15300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="H61" s="3">
         <v>15200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="I61" s="3">
         <v>15000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="J61" s="3">
         <v>100</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -4005,26 +4433,35 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F62" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G62" s="3">
         <v>1200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="H62" s="3">
         <v>600</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>4</v>
       </c>
@@ -4034,14 +4471,14 @@
       <c r="K62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -4073,8 +4510,17 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4587,17 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4664,17 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,34 +4741,43 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>24700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>22400</v>
+      </c>
+      <c r="F66" s="3">
+        <v>20400</v>
+      </c>
+      <c r="G66" s="3">
         <v>17600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="H66" s="3">
         <v>17000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="I66" s="3">
         <v>15700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="J66" s="3">
         <v>700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="K66" s="3">
         <v>500</v>
-      </c>
-      <c r="I66" s="3">
-        <v>400</v>
-      </c>
-      <c r="J66" s="3">
-        <v>400</v>
-      </c>
-      <c r="K66" s="3">
-        <v>400</v>
       </c>
       <c r="L66" s="3">
         <v>400</v>
@@ -4331,22 +4804,31 @@
         <v>400</v>
       </c>
       <c r="T66" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="U66" s="3">
         <v>400</v>
       </c>
       <c r="V66" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="W66" s="3">
         <v>300</v>
       </c>
       <c r="X66" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y66" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA66" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4853,11 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4924,17 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +5001,17 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +5078,17 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,34 +5155,43 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-20800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-18300</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="G72" s="3">
         <v>-6400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="H72" s="3">
         <v>-4000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="I72" s="3">
         <v>-2300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="J72" s="3">
         <v>-1500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="K72" s="3">
         <v>-800</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-600</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-600</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-600</v>
       </c>
       <c r="L72" s="3">
         <v>-600</v>
@@ -4679,13 +5200,13 @@
         <v>-600</v>
       </c>
       <c r="N72" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="O72" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="P72" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="Q72" s="3">
         <v>-500</v>
@@ -4697,22 +5218,31 @@
         <v>-500</v>
       </c>
       <c r="T72" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="U72" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="V72" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="W72" s="3">
         <v>-600</v>
       </c>
       <c r="X72" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Y72" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Z72" s="3">
+        <v>-600</v>
+      </c>
+      <c r="AA72" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +5309,17 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5386,17 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,55 +5463,64 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="G76" s="3">
         <v>5300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="H76" s="3">
         <v>6400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="I76" s="3">
         <v>4400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="J76" s="3">
         <v>-200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="K76" s="3">
         <v>-100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>-400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="M76" s="3">
         <v>-400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="N76" s="3">
         <v>-400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="O76" s="3">
         <v>-300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="P76" s="3">
         <v>-300</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-300</v>
-      </c>
-      <c r="O76" s="3">
-        <v>-400</v>
-      </c>
-      <c r="P76" s="3">
-        <v>-400</v>
       </c>
       <c r="Q76" s="3">
         <v>-300</v>
       </c>
       <c r="R76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="S76" s="3">
         <v>-400</v>
@@ -4975,7 +5532,7 @@
         <v>-300</v>
       </c>
       <c r="V76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="W76" s="3">
         <v>-300</v>
@@ -4983,8 +5540,17 @@
       <c r="X76" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AA76" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,108 +5617,126 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="G81" s="3">
         <v>-2400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="H81" s="3">
         <v>-1700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="I81" s="3">
         <v>-900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="J81" s="3">
         <v>-700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="K81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
         <v>0</v>
       </c>
@@ -5192,8 +5776,17 @@
       <c r="X81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,40 +5811,43 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>100</v>
+      </c>
+      <c r="E83" s="3">
+        <v>100</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
         <v>-100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="H83" s="3">
         <v>200</v>
       </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -5280,14 +5876,23 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5959,17 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +6036,17 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +6113,17 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +6190,17 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,35 +6267,44 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G89" s="3">
         <v>-3000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="I89" s="3">
         <v>-1100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
         <v>0</v>
       </c>
@@ -5694,8 +6344,17 @@
       <c r="X89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +6379,11 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5732,16 +6394,16 @@
         <v>0</v>
       </c>
       <c r="F91" s="3">
-        <v>0</v>
+        <v>-15400</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
@@ -5785,11 +6447,20 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6527,17 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,31 +6604,40 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="G94" s="3">
         <v>-2100</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>4</v>
@@ -5959,14 +6648,14 @@
       <c r="M94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
@@ -5989,11 +6678,20 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-      <c r="X94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6716,11 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6787,17 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6864,17 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6941,17 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,35 +7018,44 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>600</v>
+      </c>
+      <c r="E100" s="3">
+        <v>800</v>
+      </c>
+      <c r="F100" s="3">
+        <v>100</v>
+      </c>
+      <c r="G100" s="3">
         <v>1600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="H100" s="3">
         <v>3700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="I100" s="3">
         <v>15500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
@@ -6326,17 +7063,17 @@
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
@@ -6358,8 +7095,17 @@
       <c r="X100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,29 +7172,38 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>200</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="G102" s="3">
         <v>-3400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="H102" s="3">
         <v>-8800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="I102" s="3">
         <v>14400</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
@@ -6492,6 +7247,15 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MDEX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MDEX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="92">
   <si>
     <t>MDEX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,115 +665,119 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -781,7 +785,7 @@
         <v>500</v>
       </c>
       <c r="E8" s="3">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="F8" s="3">
         <v>500</v>
@@ -790,11 +794,11 @@
         <v>500</v>
       </c>
       <c r="H8" s="3">
+        <v>500</v>
+      </c>
+      <c r="I8" s="3">
         <v>300</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
       <c r="J8" s="3">
         <v>0</v>
       </c>
@@ -849,8 +853,11 @@
       <c r="AA8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -863,8 +870,8 @@
       <c r="F9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="3">
-        <v>0</v>
+      <c r="G9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
@@ -923,11 +930,14 @@
       <c r="Z9" s="3">
         <v>0</v>
       </c>
-      <c r="AA9" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -940,15 +950,15 @@
       <c r="F10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="3">
         <v>500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>300</v>
       </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
       <c r="J10" s="3">
         <v>0</v>
       </c>
@@ -1000,11 +1010,14 @@
       <c r="Z10" s="3">
         <v>0</v>
       </c>
-      <c r="AA10" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1046,11 +1060,11 @@
       <c r="F12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="3">
-        <v>0</v>
+      <c r="G12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I12" s="3">
         <v>100</v>
@@ -1058,8 +1072,8 @@
       <c r="J12" s="3">
         <v>100</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>4</v>
+      <c r="K12" s="3">
+        <v>100</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>4</v>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1197,24 +1217,24 @@
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
         <v>4200</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="3">
         <v>200</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1230,8 +1250,8 @@
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1239,17 +1259,17 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>4</v>
+      <c r="T14" s="3">
+        <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>4</v>
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>4</v>
@@ -1257,14 +1277,17 @@
       <c r="Y14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1272,20 +1295,20 @@
         <v>100</v>
       </c>
       <c r="E15" s="3">
+        <v>200</v>
+      </c>
+      <c r="F15" s="3">
         <v>100</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="3">
         <v>200</v>
       </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
       <c r="J15" s="3">
         <v>0</v>
       </c>
@@ -1334,14 +1357,17 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-      <c r="Z15" s="3" t="s">
-        <v>4</v>
+      <c r="Z15" s="3">
+        <v>0</v>
       </c>
       <c r="AA15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,38 +1392,39 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1800</v>
+        <v>900</v>
       </c>
       <c r="E17" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F17" s="3">
         <v>1200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1400</v>
-      </c>
-      <c r="I17" s="3">
-        <v>500</v>
       </c>
       <c r="J17" s="3">
         <v>500</v>
       </c>
       <c r="K17" s="3">
+        <v>500</v>
+      </c>
+      <c r="L17" s="3">
         <v>100</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
       <c r="M17" s="3">
         <v>0</v>
       </c>
@@ -1443,38 +1470,41 @@
       <c r="AA17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-1300</v>
+        <v>-400</v>
       </c>
       <c r="E18" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1100</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-500</v>
       </c>
       <c r="J18" s="3">
         <v>-500</v>
       </c>
       <c r="K18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
       <c r="M18" s="3">
         <v>0</v>
       </c>
@@ -1520,8 +1550,11 @@
       <c r="AA18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,8 +1582,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1558,22 +1592,22 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-100</v>
-      </c>
-      <c r="H20" s="3">
-        <v>100</v>
       </c>
       <c r="I20" s="3">
         <v>100</v>
       </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
@@ -1626,38 +1660,41 @@
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-1200</v>
+        <v>-300</v>
       </c>
       <c r="E21" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F21" s="3">
         <v>-600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-4400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-100</v>
       </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
       <c r="M21" s="3">
         <v>0</v>
       </c>
@@ -1697,41 +1734,44 @@
       <c r="Y21" s="3">
         <v>0</v>
       </c>
-      <c r="Z21" s="3" t="s">
-        <v>4</v>
+      <c r="Z21" s="3">
+        <v>0</v>
       </c>
       <c r="AA21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="E22" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F22" s="3">
         <v>1300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>4400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>200</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
@@ -1762,11 +1802,11 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W22" s="3">
-        <v>0</v>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X22" s="3">
         <v>0</v>
@@ -1780,38 +1820,41 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-3000</v>
+        <v>-1900</v>
       </c>
       <c r="E23" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-2100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-8800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
         <v>0</v>
       </c>
@@ -1857,8 +1900,11 @@
       <c r="AA23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1934,8 +1980,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,38 +2060,41 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-3000</v>
+        <v>-1900</v>
       </c>
       <c r="E26" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-2100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-8800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
         <v>0</v>
       </c>
@@ -2088,38 +2140,41 @@
       <c r="AA26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-3000</v>
+        <v>-1900</v>
       </c>
       <c r="E27" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-8800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
         <v>0</v>
       </c>
@@ -2165,8 +2220,11 @@
       <c r="AA27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2254,22 +2315,22 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>-500</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="H29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,8 +2540,11 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2482,22 +2552,22 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>100</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-100</v>
       </c>
       <c r="I32" s="3">
         <v>-100</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
@@ -2550,38 +2620,41 @@
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-3000</v>
+        <v>-1900</v>
       </c>
       <c r="E33" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-9300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
         <v>0</v>
       </c>
@@ -2627,8 +2700,11 @@
       <c r="AA33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,38 +2780,41 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-3000</v>
+        <v>-1900</v>
       </c>
       <c r="E35" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-9300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
         <v>0</v>
       </c>
@@ -2781,90 +2860,96 @@
       <c r="AA35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,8 +3007,9 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2930,23 +3017,23 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>14400</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
@@ -2998,8 +3085,11 @@
       <c r="AA41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,8 +3165,11 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3087,17 +3180,17 @@
         <v>900</v>
       </c>
       <c r="F43" s="3">
+        <v>900</v>
+      </c>
+      <c r="G43" s="3">
         <v>1600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>200</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>4</v>
       </c>
@@ -3113,8 +3206,8 @@
       <c r="N43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
+      <c r="O43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
@@ -3152,8 +3245,11 @@
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3166,14 +3262,14 @@
       <c r="F44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G44" s="3">
-        <v>100</v>
+      <c r="G44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H44" s="3">
         <v>100</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>4</v>
+      <c r="I44" s="3">
+        <v>100</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>4</v>
@@ -3190,8 +3286,8 @@
       <c r="N44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O44" s="3">
-        <v>0</v>
+      <c r="O44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P44" s="3">
         <v>0</v>
@@ -3229,8 +3325,11 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3244,22 +3343,22 @@
         <v>0</v>
       </c>
       <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
         <v>100</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
       <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
         <v>1000</v>
-      </c>
-      <c r="J45" s="3">
-        <v>100</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
       </c>
       <c r="L45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
@@ -3288,8 +3387,8 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>4</v>
+      <c r="V45" s="3">
+        <v>0</v>
       </c>
       <c r="W45" s="3" t="s">
         <v>4</v>
@@ -3300,43 +3399,46 @@
       <c r="Y45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z45" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA45" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>900</v>
+      </c>
+      <c r="E46" s="3">
         <v>1000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>6000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>15400</v>
-      </c>
-      <c r="J46" s="3">
-        <v>100</v>
       </c>
       <c r="K46" s="3">
         <v>100</v>
       </c>
       <c r="L46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M46" s="3">
         <v>0</v>
@@ -3383,8 +3485,11 @@
       <c r="AA46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3398,14 +3503,14 @@
         <v>0</v>
       </c>
       <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
         <v>2300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>400</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>4</v>
       </c>
@@ -3421,8 +3526,8 @@
       <c r="N47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="O47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
@@ -3460,8 +3565,11 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3469,20 +3577,20 @@
         <v>2700</v>
       </c>
       <c r="E48" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F48" s="3">
         <v>2800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1400</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>4</v>
       </c>
@@ -3498,8 +3606,8 @@
       <c r="N48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
+      <c r="O48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
@@ -3537,8 +3645,11 @@
       <c r="AA48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3552,23 +3663,23 @@
         <v>12200</v>
       </c>
       <c r="G49" s="3">
+        <v>12200</v>
+      </c>
+      <c r="H49" s="3">
         <v>15200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>15600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>300</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>4</v>
       </c>
@@ -3578,8 +3689,8 @@
       <c r="O49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P49" s="3">
-        <v>0</v>
+      <c r="P49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q49" s="3">
         <v>0</v>
@@ -3612,10 +3723,13 @@
         <v>0</v>
       </c>
       <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +3885,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3845,8 +3965,11 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,38 +4045,41 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E54" s="3">
         <v>15900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>16200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>16800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>22800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>23300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>20100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>400</v>
       </c>
-      <c r="L54" s="3">
-        <v>0</v>
-      </c>
       <c r="M54" s="3">
         <v>0</v>
       </c>
@@ -3994,13 +4120,16 @@
         <v>0</v>
       </c>
       <c r="Z54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA54" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,35 +4187,36 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E57" s="3">
         <v>900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>800</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H57" s="3">
-        <v>0</v>
+      <c r="H57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I57" s="3">
+        <v>0</v>
+      </c>
+      <c r="J57" s="3">
         <v>400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>100</v>
       </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
       <c r="L57" s="3">
         <v>0</v>
       </c>
@@ -4134,23 +4265,26 @@
       <c r="AA57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E58" s="3">
         <v>2500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1300</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
@@ -4158,13 +4292,13 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>400</v>
-      </c>
-      <c r="L58" s="3">
-        <v>300</v>
       </c>
       <c r="M58" s="3">
         <v>300</v>
@@ -4211,32 +4345,35 @@
       <c r="AA58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E59" s="3">
         <v>6000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>300</v>
       </c>
-      <c r="J59" s="3">
-        <v>0</v>
-      </c>
       <c r="K59" s="3">
         <v>0</v>
       </c>
@@ -4288,37 +4425,40 @@
       <c r="AA59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E60" s="3">
         <v>9400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>7600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1200</v>
-      </c>
-      <c r="I60" s="3">
-        <v>600</v>
       </c>
       <c r="J60" s="3">
         <v>600</v>
       </c>
       <c r="K60" s="3">
+        <v>600</v>
+      </c>
+      <c r="L60" s="3">
         <v>500</v>
-      </c>
-      <c r="L60" s="3">
-        <v>400</v>
       </c>
       <c r="M60" s="3">
         <v>400</v>
@@ -4351,13 +4491,13 @@
         <v>400</v>
       </c>
       <c r="W60" s="3">
+        <v>400</v>
+      </c>
+      <c r="X60" s="3">
         <v>300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>400</v>
-      </c>
-      <c r="Y60" s="3">
-        <v>300</v>
       </c>
       <c r="Z60" s="3">
         <v>300</v>
@@ -4365,35 +4505,38 @@
       <c r="AA60" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E61" s="3">
         <v>13800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>13300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>12900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>15300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>15200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>15000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>100</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -4442,8 +4585,11 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4457,14 +4603,14 @@
         <v>1500</v>
       </c>
       <c r="G62" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H62" s="3">
         <v>1200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>600</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>4</v>
       </c>
@@ -4480,8 +4626,8 @@
       <c r="N62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
@@ -4519,8 +4665,11 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,37 +4905,40 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>26400</v>
+      </c>
+      <c r="E66" s="3">
         <v>24700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>22400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>20400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>17600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>17000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>15700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>500</v>
-      </c>
-      <c r="L66" s="3">
-        <v>400</v>
       </c>
       <c r="M66" s="3">
         <v>400</v>
@@ -4813,13 +4971,13 @@
         <v>400</v>
       </c>
       <c r="W66" s="3">
+        <v>400</v>
+      </c>
+      <c r="X66" s="3">
         <v>300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>400</v>
-      </c>
-      <c r="Y66" s="3">
-        <v>300</v>
       </c>
       <c r="Z66" s="3">
         <v>300</v>
@@ -4827,8 +4985,11 @@
       <c r="AA66" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,37 +5335,40 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-22700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-20800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-18300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-15700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-6400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-4000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-2300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-800</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-600</v>
       </c>
       <c r="M72" s="3">
         <v>-600</v>
@@ -5209,7 +5383,7 @@
         <v>-600</v>
       </c>
       <c r="Q72" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="R72" s="3">
         <v>-500</v>
@@ -5227,7 +5401,7 @@
         <v>-500</v>
       </c>
       <c r="W72" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="X72" s="3">
         <v>-600</v>
@@ -5239,10 +5413,13 @@
         <v>-600</v>
       </c>
       <c r="AA72" s="3">
+        <v>-600</v>
+      </c>
+      <c r="AB72" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,37 +5655,40 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="E76" s="3">
         <v>-8700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-6200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-3700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>5300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>6400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-100</v>
-      </c>
-      <c r="L76" s="3">
-        <v>-400</v>
       </c>
       <c r="M76" s="3">
         <v>-400</v>
@@ -5511,7 +5697,7 @@
         <v>-400</v>
       </c>
       <c r="O76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="P76" s="3">
         <v>-300</v>
@@ -5520,22 +5706,22 @@
         <v>-300</v>
       </c>
       <c r="R76" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="S76" s="3">
         <v>-400</v>
       </c>
       <c r="T76" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="U76" s="3">
         <v>-300</v>
       </c>
       <c r="V76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W76" s="3">
         <v>-400</v>
-      </c>
-      <c r="W76" s="3">
-        <v>-300</v>
       </c>
       <c r="X76" s="3">
         <v>-300</v>
@@ -5549,8 +5735,11 @@
       <c r="AA76" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB76" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,120 +5815,126 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-3000</v>
+        <v>-1900</v>
       </c>
       <c r="E81" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-9300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
         <v>0</v>
       </c>
@@ -5785,8 +5980,11 @@
       <c r="AA81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5823,25 +6022,25 @@
         <v>100</v>
       </c>
       <c r="E83" s="3">
+        <v>200</v>
+      </c>
+      <c r="F83" s="3">
         <v>100</v>
       </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
       <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
         <v>-100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>200</v>
       </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>4</v>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>4</v>
@@ -5849,8 +6048,8 @@
       <c r="M83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
+      <c r="N83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
@@ -5885,14 +6084,17 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-      <c r="Z83" s="3" t="s">
-        <v>4</v>
+      <c r="Z83" s="3">
+        <v>0</v>
       </c>
       <c r="AA83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,38 +6490,41 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-800</v>
+        <v>0</v>
       </c>
       <c r="E89" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F89" s="3">
         <v>-600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-3000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
         <v>0</v>
       </c>
@@ -6353,8 +6570,11 @@
       <c r="AA89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,31 +6602,32 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-15400</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -6456,11 +6677,14 @@
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-      <c r="AA91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,34 +6840,37 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
         <v>-100</v>
       </c>
       <c r="F94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G94" s="3">
         <v>-1800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2100</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>4</v>
@@ -6657,8 +6887,8 @@
       <c r="P94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
@@ -6687,11 +6917,14 @@
       <c r="Z94" s="3">
         <v>0</v>
       </c>
-      <c r="AA94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,38 +7270,41 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F100" s="3">
         <v>800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>3700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>15500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
@@ -7072,11 +7318,11 @@
         <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
@@ -7104,8 +7350,11 @@
       <c r="AA100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,32 +7430,35 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-3400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-8800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>14400</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
@@ -7256,6 +7508,9 @@
         <v>0</v>
       </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MDEX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MDEX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="92">
   <si>
     <t>MDEX</t>
   </si>
@@ -6618,16 +6618,16 @@
         <v>0</v>
       </c>
       <c r="G91" s="3">
-        <v>-15400</v>
+        <v>-3600</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
+      <c r="I91" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
